--- a/differences_6_0.8.xlsx
+++ b/differences_6_0.8.xlsx
@@ -527,7 +527,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1930000000000001</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -573,10 +573,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.172</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.003000000000000003</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.147</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2020000000000001</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -714,13 +714,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.068</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.165</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -751,19 +751,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>-0.02499999999999991</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.131</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>-0.02000000000000002</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.08299999999999996</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -812,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.08700000000000002</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>-0.002000000000000002</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -849,13 +849,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.129</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>0.04499999999999993</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1689999999999999</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.02600000000000002</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -932,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>0.063</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.04600000000000004</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.143</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>-0.06299999999999994</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.06899999999999995</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.121</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -999,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>-0.063</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.06700000000000006</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.139</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.004000000000000004</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.05900000000000005</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.04500000000000004</v>
+        <v>0.04399999999999998</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1119,13 +1119,13 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>-0.05200000000000005</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.07499999999999996</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0.03900000000000003</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1171,16 +1171,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.118</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.04100000000000004</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.006999999999999951</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-0.007000000000000006</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.03800000000000003</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0.08800000000000002</v>
+        <v>-0.03099999999999997</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1257,13 +1257,13 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.05699999999999994</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.137</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.05599999999999999</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.126</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -1324,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-0.07899999999999996</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -1343,13 +1343,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.05399999999999994</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.04500000000000004</v>
+        <v>-0.08499999999999996</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.02500000000000002</v>
+        <v>-0.001000000000000001</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1404,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>0.09899999999999998</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0.116</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.02900000000000003</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>-0.07699999999999996</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -1462,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0.08500000000000002</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>-0.05400000000000005</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1487,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>-0.04199999999999993</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.03799999999999998</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.102</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.03699999999999992</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>-0.06899999999999995</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0.07400000000000001</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>-0.06699999999999995</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -1600,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0.062</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.04399999999999993</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.03700000000000003</v>
+        <v>-0.04999999999999993</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1671,13 +1671,13 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>-0.05099999999999993</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.05399999999999994</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1689,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>-0.064</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -1711,13 +1711,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.06299999999999994</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.05699999999999994</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>0.07400000000000001</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -1769,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.116</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0.07900000000000001</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -1806,10 +1806,10 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>-0.05299999999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>-0.04800000000000004</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.064</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.15</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.06000000000000005</v>
+        <v>0.13</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0.127</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -1916,10 +1916,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.057</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>-0.159</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -1944,10 +1944,10 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0.05000000000000004</v>
+        <v>0.05700000000000005</v>
       </c>
       <c r="E33" t="n">
-        <v>0.08099999999999996</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -1956,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>0.09099999999999997</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -1993,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>-0.08099999999999996</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0.08800000000000002</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -2030,7 +2030,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>0.03799999999999992</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -2045,10 +2045,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.06700000000000006</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>0.08000000000000002</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2082,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>0.002000000000000002</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -2100,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>-0.09999999999999998</v>
+        <v>0.07600000000000001</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -2125,19 +2125,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.07799999999999996</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.05400000000000005</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.101</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2171,10 +2171,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.122</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>0.04900000000000004</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.137</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2229,10 +2229,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.07699999999999996</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>0.09199999999999997</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -2269,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>-0.05199999999999994</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>-0.09399999999999997</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -2315,13 +2315,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>-0.06099999999999994</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.03700000000000003</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0.09599999999999997</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -2342,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>0.002888047619047374</v>
       </c>
     </row>
     <row r="42">
@@ -2361,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0.06200000000000006</v>
+        <v>-0.06599999999999995</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -2401,10 +2401,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0.05300000000000005</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>0.02399999999999997</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -2413,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.112</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2456,10 +2456,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.03399999999999992</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.04299999999999993</v>
+        <v>0.09700000000000009</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2499,19 +2499,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>-0.07599999999999996</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.003000000000000003</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0.09599999999999997</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0.05299999999999999</v>
+        <v>-0.03700000000000003</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -2591,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0.09099999999999997</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>0.07399999999999995</v>
       </c>
       <c r="K47" t="n">
         <v>0</v>
@@ -2637,7 +2637,7 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0.04099999999999993</v>
+        <v>-0.04500000000000004</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
@@ -2658,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>-0.04399999999999998</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
@@ -2683,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0.09899999999999998</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
@@ -2698,7 +2698,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>-0.03200000000000003</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
@@ -2738,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>0.09400000000000003</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -2750,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>0.067</v>
+        <v>0</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
@@ -2766,16 +2766,16 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-0.06199999999999994</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>-0.06200000000000006</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>-0.04200000000000004</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
@@ -2790,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>-0.107</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
@@ -2818,16 +2818,16 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.07300000000000001</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>-0.04499999999999993</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.07200000000000006</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2867,10 +2867,10 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>0.05400000000000005</v>
+        <v>-0.07099999999999995</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>-0.09200000000000003</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -2907,13 +2907,13 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>0.04499999999999993</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>0.04899999999999999</v>
       </c>
       <c r="E54" t="n">
-        <v>0.05500000000000005</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
@@ -2928,7 +2928,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>0.08100000000000002</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
@@ -2953,13 +2953,13 @@
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>0.04499999999999993</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>0.05300000000000005</v>
+        <v>-0.05499999999999994</v>
       </c>
       <c r="F55" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>0.02999999999999997</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
@@ -3014,13 +3014,13 @@
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>-0.066</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>0.04699999999999993</v>
       </c>
       <c r="J56" t="n">
-        <v>-0.09199999999999997</v>
+        <v>0</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
@@ -3048,16 +3048,16 @@
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01800000000000002</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.101</v>
+        <v>0.07400000000000007</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3103,16 +3103,16 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.111</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>0.05299999999999999</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>-0.01700000000000002</v>
+        <v>0</v>
       </c>
       <c r="K58" t="n">
         <v>0</v>
@@ -3137,13 +3137,13 @@
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>0.07899999999999996</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>0.06400000000000006</v>
+        <v>-0.05699999999999994</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
@@ -3183,10 +3183,10 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>0.06300000000000006</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.02899999999999997</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>0.103</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -3235,13 +3235,13 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>-0.03500000000000003</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.09300000000000008</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>-0.02300000000000002</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
@@ -3287,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>0.216</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -3336,13 +3336,13 @@
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>-0.07600000000000001</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>0.142</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
@@ -3379,7 +3379,7 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>0.07500000000000007</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>0.07599999999999996</v>
+        <v>0</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
@@ -3428,13 +3428,13 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>-0.06900000000000001</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>-0.125</v>
+        <v>0</v>
       </c>
       <c r="K65" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>0.09500000000000003</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>0.06099999999999994</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>0.064</v>
+        <v>0</v>
       </c>
       <c r="M66" t="n">
         <v>0</v>
@@ -3517,10 +3517,10 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.05000000000000004</v>
+        <v>0.05199999999999994</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>0.04699999999999999</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -3563,10 +3563,10 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>0.09499999999999997</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>0.04999999999999999</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -3603,13 +3603,13 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.03300000000000003</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>0.169</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3618,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>-0.08400000000000002</v>
+        <v>0</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>0.01600000000000001</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
@@ -3655,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>0.107</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>0.07500000000000007</v>
       </c>
       <c r="L70" t="n">
-        <v>0.04499999999999998</v>
+        <v>0</v>
       </c>
       <c r="M70" t="n">
         <v>0</v>
@@ -3689,7 +3689,7 @@
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>0.04499999999999993</v>
+        <v>0</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -3704,19 +3704,19 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>0.112</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>0.196</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>0.103</v>
+        <v>0</v>
       </c>
       <c r="M71" t="n">
         <v>0</v>
@@ -3747,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.05899999999999994</v>
+        <v>0.07299999999999995</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3759,7 +3759,7 @@
         <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>0</v>
+        <v>-0.03600000000000003</v>
       </c>
       <c r="L72" t="n">
         <v>0</v>
@@ -3781,7 +3781,7 @@
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>0.09599999999999997</v>
+        <v>0</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>0.09299999999999997</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3836,13 +3836,13 @@
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.03299999999999997</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>0.105</v>
       </c>
       <c r="H74" t="n">
-        <v>-0.08799999999999997</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -3851,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>0.008000000000000007</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
@@ -3885,10 +3885,10 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.05800000000000005</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.007000000000000006</v>
+        <v>0.1190000000000001</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -3925,7 +3925,7 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>0.03900000000000003</v>
+        <v>0</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
@@ -3934,13 +3934,13 @@
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>0.05499999999999999</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
+        <v>0.08400000000000002</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
@@ -3977,16 +3977,16 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.009000000000000008</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>0.08699999999999997</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>0</v>
+        <v>0.09800000000000003</v>
       </c>
       <c r="K77" t="n">
         <v>0</v>
@@ -4011,19 +4011,19 @@
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>0.08699999999999997</v>
+        <v>0</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>0.06900000000000006</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>0.119</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -4060,16 +4060,16 @@
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>0.07500000000000001</v>
       </c>
       <c r="E79" t="n">
-        <v>0.02699999999999991</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -4109,16 +4109,16 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>0.05099999999999993</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>0.07099999999999995</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>0.08699999999999997</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -4161,7 +4161,7 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>0.234</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -4195,13 +4195,13 @@
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>-0.02500000000000002</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>0.01900000000000002</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
@@ -4210,7 +4210,7 @@
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>0.05199999999999999</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -4222,7 +4222,7 @@
         <v>0</v>
       </c>
       <c r="L82" t="n">
-        <v>0.106</v>
+        <v>0</v>
       </c>
       <c r="M82" t="n">
         <v>0</v>
@@ -4253,22 +4253,22 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.08299999999999996</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>0.05699999999999994</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
+        <v>0.09899999999999998</v>
       </c>
       <c r="K83" t="n">
         <v>0</v>
       </c>
       <c r="L83" t="n">
-        <v>0.002000000000000002</v>
+        <v>0</v>
       </c>
       <c r="M83" t="n">
         <v>0</v>
@@ -4299,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>0.1990000000000001</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -4333,7 +4333,7 @@
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>0.118</v>
+        <v>0</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
@@ -4351,10 +4351,10 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>0.06200000000000006</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
+        <v>0.111</v>
       </c>
       <c r="K85" t="n">
         <v>0</v>
@@ -4385,13 +4385,13 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>0.01300000000000001</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.02300000000000002</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -4400,7 +4400,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
+        <v>0.164</v>
       </c>
       <c r="K86" t="n">
         <v>0</v>
@@ -4440,19 +4440,19 @@
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>0.05599999999999999</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>0.09099999999999997</v>
       </c>
       <c r="K87" t="n">
         <v>0</v>
       </c>
       <c r="L87" t="n">
-        <v>0.04799999999999999</v>
+        <v>0</v>
       </c>
       <c r="M87" t="n">
         <v>0</v>
@@ -4483,10 +4483,10 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>0.08799999999999997</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>0.08399999999999996</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -4529,10 +4529,10 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>0.09499999999999997</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>0.057</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -4575,16 +4575,16 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.02600000000000002</v>
+        <v>0.121</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>0.04299999999999998</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>-0.02700000000000002</v>
+        <v>0</v>
       </c>
       <c r="K90" t="n">
         <v>0</v>
@@ -4621,13 +4621,13 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>0.159</v>
       </c>
       <c r="H91" t="n">
-        <v>-0.01800000000000002</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>-0.06499999999999995</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
         <v>0</v>
@@ -4661,7 +4661,7 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>-0.08799999999999997</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
@@ -4682,7 +4682,7 @@
         <v>0</v>
       </c>
       <c r="L92" t="n">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="M92" t="n">
         <v>0</v>
@@ -4704,7 +4704,7 @@
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>0.114</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
@@ -4713,7 +4713,7 @@
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>0.111</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4747,13 +4747,13 @@
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>0.06899999999999995</v>
+        <v>0</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>0.05400000000000005</v>
+        <v>-0.05399999999999994</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
@@ -4790,7 +4790,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>0.04899999999999993</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -4799,13 +4799,13 @@
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>0.03599999999999992</v>
+        <v>0</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4854,19 +4854,19 @@
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
+        <v>0.113</v>
       </c>
       <c r="K96" t="n">
         <v>0</v>
       </c>
       <c r="L96" t="n">
-        <v>0.09600000000000003</v>
+        <v>0</v>
       </c>
       <c r="M96" t="n">
         <v>0</v>
@@ -4897,10 +4897,10 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>0.153</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -4931,7 +4931,7 @@
         <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
@@ -4946,13 +4946,13 @@
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>0.068</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>0</v>
+        <v>0.114</v>
       </c>
       <c r="K98" t="n">
         <v>0</v>
@@ -4989,7 +4989,7 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -5004,7 +5004,7 @@
         <v>0</v>
       </c>
       <c r="L99" t="n">
-        <v>0.02800000000000002</v>
+        <v>0</v>
       </c>
       <c r="M99" t="n">
         <v>0</v>
@@ -5035,7 +5035,7 @@
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>0.162</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -5075,13 +5075,13 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>-0.08099999999999996</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.06300000000000006</v>
+        <v>0</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
